--- a/data/ouvrieres.xlsx
+++ b/data/ouvrieres.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellap\VirtualBox VMs\SciViews Box 2019\shared\projects\Ethologie-bourdons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F9E6B1E-C473-485A-830F-B5766971E4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71C5105-47C3-4F36-AD3A-7D586C14FFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D350CE07-04CB-42DE-9E33-5C9830E29DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E94CFA-ED07-4DF2-97E6-8B30F8A4BD91}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1184,7 @@
         <v>0.23</v>
       </c>
       <c r="C46">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>3</v>
